--- a/data/trans_orig/Q23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Edad-trans_orig.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +636,17 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>14,9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15,91</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>15,81</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>15,25</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,78</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15,96</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>15,73</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>15,48</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,94</t>
         </is>
       </c>
     </row>
@@ -649,29 +734,59 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>14,28; 15,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 16,54</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>15,51; 16,1</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>14,95; 15,59</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,35; 16,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 16,42</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>15,54; 15,92</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>15,27; 15,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 15,51</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 16,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>16,17</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16,71</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>16,8</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>16,97</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,99</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,86</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>16,6</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>16,77</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,12</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,78</t>
         </is>
       </c>
     </row>
@@ -729,29 +874,59 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>15,55; 16,74</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16,09; 17,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>16,52; 17,09</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>16,64; 17,3</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 17,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 17,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>16,42; 16,79</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>16,59; 16,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 16,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 17,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>15,45</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16,89</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>17,17</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,21</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,59</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,17</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>16,9</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>16,96</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,81</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,03</t>
         </is>
       </c>
     </row>
@@ -809,29 +1014,59 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>14,65; 16,25</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 17,42</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>16,8; 17,61</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>16,88; 17,62</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15,63; 19,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 17,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>16,66; 17,22</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>16,73; 17,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 16,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 17,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -851,22 +1086,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>15,39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16,77</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>18,08</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>17,88</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,56</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>16,94</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>17,01</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,0</t>
         </is>
       </c>
     </row>
@@ -889,29 +1154,59 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>14,25; 17,76</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 17,59</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>17,57; 18,65</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>17,41; 18,45</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 19,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 17,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>16,66; 17,2</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>16,73; 17,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 17,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -931,22 +1226,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>14,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16,41</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>21,73</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>20,02</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,97</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>17,41</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>17,61</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,49</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16,87</t>
         </is>
       </c>
     </row>
@@ -969,29 +1294,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>8,0; 17,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 16,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>20,15; 23,98</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>18,91; 21,39</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 16,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 18,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>16,92; 18,06</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>17,09; 18,13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,3; 16,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 17,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,26</t>
+          <t>15,03</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,31</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>24,94</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>28,09</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19,25</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17,57</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,76</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15,37</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,19</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,86; 16,98</t>
+          <t>16,03; 17,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 16,73</t>
+          <t>15,81; 16,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,63; 29,01</t>
+          <t>13,18; 17,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,88; 33,01</t>
+          <t>15,98; 16,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,92</t>
+          <t>21,26; 30,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,8; 18,25</t>
+          <t>23,94; 34,98</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 20,64</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 18,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 18,94</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 16,87</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 17,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,46</t>
+          <t>16,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>28,94</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16,42</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1119,54 +1564,225 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15,19; 16,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 17,06</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 17,01</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 35,5</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22,16; 36,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 24,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15,53; 18,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 18,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 17,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16,34</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,46</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,55</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17,65</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15,95</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16,75</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16,92</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,19; 16,5</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>16,31; 16,61</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 16,03</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 16,8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>17,2; 17,75</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>17,38; 17,95</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 16,94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 17,69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>16,62; 16,89</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>16,79; 17,06</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 16,1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 17,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,15 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según edad a la que empezó a fumar tabaco</t>
+          <t>Edad media de inicio en el consumo de tabaco/marihuana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,9</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,78</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>15,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,48</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,87</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>15,94</t>
+          <t>15,53</t>
         </is>
       </c>
     </row>
@@ -734,52 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 15,52</t>
+          <t>15,37; 16,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 16,54</t>
+          <t>15,53; 16,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 16,1</t>
+          <t>14,96; 15,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 15,59</t>
+          <t>14,87; 15,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,15</t>
+          <t>15,54; 15,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 16,42</t>
+          <t>15,28; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 15,92</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>15,27; 15,67</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>14,24; 15,51</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,52; 16,3</t>
+          <t>15,29; 15,79</t>
         </is>
       </c>
     </row>
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>16,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,99</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,6</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,77</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,12</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>16,78</t>
+          <t>16,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,65</t>
+          <t>16,26; 16,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 16,88</t>
+          <t>16,37; 16,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 16,74</t>
+          <t>16,31; 16,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 17,33</t>
+          <t>16,5; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,09</t>
+          <t>16,69; 17,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,3</t>
+          <t>16,47; 17,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 17,94</t>
+          <t>16,44; 16,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 17,4</t>
+          <t>16,58; 16,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 16,79</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 16,98</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>15,59; 16,71</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,41; 17,15</t>
+          <t>16,47; 16,91</t>
         </is>
       </c>
     </row>
@@ -946,52 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,45</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,96</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,81</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,03</t>
+          <t>17,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,2</t>
+          <t>16,38; 17,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,11</t>
+          <t>16,45; 17,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,65; 16,25</t>
+          <t>16,56; 17,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 17,42</t>
+          <t>16,81; 17,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,61</t>
+          <t>16,87; 17,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,62</t>
+          <t>16,74; 17,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,29</t>
+          <t>16,66; 17,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,63</t>
+          <t>16,75; 17,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,22</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>15,12; 16,71</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>16,76; 17,37</t>
+          <t>16,74; 17,3</t>
         </is>
       </c>
     </row>
@@ -1086,52 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,88</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>17,01</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,51</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>17,0</t>
+          <t>16,99</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,57</t>
+          <t>15,98; 16,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,74</t>
+          <t>16,07; 16,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,76</t>
+          <t>16,1; 16,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 17,59</t>
+          <t>17,58; 18,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,65</t>
+          <t>17,41; 18,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,45</t>
+          <t>17,27; 18,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,97; 19,09</t>
+          <t>16,63; 17,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,87</t>
+          <t>16,74; 17,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,2</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,73; 17,32</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 17,24</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,39; 17,54</t>
+          <t>16,73; 17,25</t>
         </is>
       </c>
     </row>
@@ -1226,27 +1082,27 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>21,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,73</t>
+          <t>20,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,02</t>
+          <t>19,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1256,22 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>17,61</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,49</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>16,87</t>
+          <t>17,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 16,73</t>
+          <t>15,87; 16,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 17,2</t>
+          <t>16,19; 17,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 17,33</t>
+          <t>15,93; 16,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 16,73</t>
+          <t>20,09; 23,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,15; 23,98</t>
+          <t>18,96; 21,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,91; 21,39</t>
+          <t>18,73; 21,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 16,86</t>
+          <t>16,87; 17,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 18,06</t>
+          <t>17,09; 18,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,06</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 18,13</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>13,3; 16,64</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,63; 17,15</t>
+          <t>17,15; 18,27</t>
         </is>
       </c>
     </row>
@@ -1366,52 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,03</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>24,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,94</t>
+          <t>28,09</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,09</t>
+          <t>22,94</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,25</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,57</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,76</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,37</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
+          <t>17,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 17,54</t>
+          <t>16,05; 17,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,81; 16,92</t>
+          <t>15,84; 16,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,0</t>
+          <t>15,93; 17,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,73</t>
+          <t>21,12; 30,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,45</t>
+          <t>23,93; 35,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,94; 34,98</t>
+          <t>20,97; 26,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,82; 18,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,5; 20,64</t>
+          <t>16,98; 18,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 18,56</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>16,94; 18,94</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>13,49; 16,87</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,83; 17,66</t>
+          <t>17,27; 18,85</t>
         </is>
       </c>
     </row>
@@ -1506,52 +1302,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>21,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,08</t>
+          <t>28,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,94</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>17,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>17,03</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
+          <t>16,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,19; 16,71</t>
+          <t>15,19; 16,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,67; 17,06</t>
+          <t>15,68; 16,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,6; 17,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,99; 17,01</t>
+          <t>16,03; 36,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,78; 35,5</t>
+          <t>22,61; 37,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,16; 36,27</t>
+          <t>18,96; 23,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,59; 17,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,49; 24,44</t>
+          <t>16,28; 18,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,01</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>16,26; 18,36</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,47; 17,68</t>
+          <t>15,89; 17,92</t>
         </is>
       </c>
     </row>
@@ -1646,17 +1412,17 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1666,32 +1432,17 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,46</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
+          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,21; 16,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,14; 16,03</t>
+          <t>16,32; 16,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,8</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,39; 17,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,41; 17,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,36; 16,94</t>
+          <t>16,62; 16,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,69</t>
+          <t>16,8; 17,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,06</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 16,1</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 17,07</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
     </row>
@@ -1772,16 +1508,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
